--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2484.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2484.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.282019622176595</v>
+        <v>1.63849413394928</v>
       </c>
       <c r="B1">
-        <v>3.444617801164704</v>
+        <v>1.531911015510559</v>
       </c>
       <c r="C1">
-        <v>4.394873727616663</v>
+        <v>4.803493022918701</v>
       </c>
       <c r="D1">
-        <v>3.503001924431393</v>
+        <v>1.244050621986389</v>
       </c>
       <c r="E1">
-        <v>1.708836435954228</v>
+        <v>0.6421604156494141</v>
       </c>
     </row>
   </sheetData>
